--- a/data/2018_Silverman_et_al-heterocyst_data_summary.xlsx
+++ b/data/2018_Silverman_et_al-heterocyst_data_summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">organism</t>
   </si>
@@ -20,6 +20,9 @@
     <t xml:space="preserve">pN2</t>
   </si>
   <si>
+    <t xml:space="preserve">growth_phase</t>
+  </si>
+  <si>
     <t xml:space="preserve">n_samples</t>
   </si>
   <si>
@@ -29,19 +32,22 @@
     <t xml:space="preserve">n_cbh_mean_se</t>
   </si>
   <si>
-    <t xml:space="preserve">n_cbh_mean_l95ci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_cbh_mean_u95ci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_cbh_sd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_chb_sd_se</t>
+    <t xml:space="preserve">n_cbh_median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_cbh_median_se</t>
   </si>
   <si>
     <t xml:space="preserve">A. cylindrica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">early exponential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exponential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stationary</t>
   </si>
   <si>
     <t xml:space="preserve">A. variabilis</t>
@@ -401,298 +407,499 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>412</v>
-      </c>
       <c r="D2" t="n">
-        <v>8.0995145631068</v>
+        <v>643</v>
       </c>
       <c r="E2" t="n">
-        <v>0.183759294367051</v>
+        <v>9.33437013996889</v>
       </c>
       <c r="F2" t="n">
-        <v>7.73325635991073</v>
+        <v>0.172253206300272</v>
       </c>
       <c r="G2" t="n">
-        <v>8.48767908929025</v>
+        <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>3.71978333844131</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.137032154442648</v>
+        <v>0.476721368582596</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>762</v>
-      </c>
       <c r="D3" t="n">
-        <v>10.6167979002625</v>
+        <v>457</v>
       </c>
       <c r="E3" t="n">
-        <v>0.186336425033356</v>
+        <v>9.41575492341357</v>
       </c>
       <c r="F3" t="n">
-        <v>10.2310378085848</v>
+        <v>0.199665905482454</v>
       </c>
       <c r="G3" t="n">
-        <v>10.9685039370079</v>
+        <v>9</v>
       </c>
       <c r="H3" t="n">
-        <v>4.9969905512044</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.154924603865944</v>
+        <v>0.469101328132906</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>377</v>
-      </c>
       <c r="D4" t="n">
-        <v>14.8488063660477</v>
+        <v>431</v>
       </c>
       <c r="E4" t="n">
-        <v>0.304122657253091</v>
+        <v>11.5638051044084</v>
       </c>
       <c r="F4" t="n">
-        <v>14.2231486083661</v>
+        <v>0.248757258059664</v>
       </c>
       <c r="G4" t="n">
-        <v>15.4400487525644</v>
+        <v>12</v>
       </c>
       <c r="H4" t="n">
-        <v>5.86786732318587</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.268341514647297</v>
+        <v>0.534978693222639</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>250</v>
-      </c>
       <c r="D5" t="n">
-        <v>16.936</v>
+        <v>483</v>
       </c>
       <c r="E5" t="n">
-        <v>0.426208444616319</v>
+        <v>12.8737060041408</v>
       </c>
       <c r="F5" t="n">
-        <v>16.1402032405664</v>
+        <v>0.267529967255851</v>
       </c>
       <c r="G5" t="n">
-        <v>17.824</v>
+        <v>12</v>
       </c>
       <c r="H5" t="n">
-        <v>6.69980998351901</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.362712028831229</v>
+        <v>0.498766245617892</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C6" t="n">
-        <v>321</v>
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>19.1713395638629</v>
+        <v>123</v>
       </c>
       <c r="E6" t="n">
-        <v>0.431696282124241</v>
+        <v>7.69918699186992</v>
       </c>
       <c r="F6" t="n">
-        <v>18.3958760598518</v>
+        <v>0.309351349624615</v>
       </c>
       <c r="G6" t="n">
-        <v>20.0745289245719</v>
+        <v>7</v>
       </c>
       <c r="H6" t="n">
-        <v>7.90837695184423</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.368213731292175</v>
+        <v>0.49858257549235</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>101</v>
+        <v>0.1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>20.5544554455446</v>
+        <v>338</v>
       </c>
       <c r="E7" t="n">
-        <v>1.1232222674179</v>
+        <v>11.0650887573964</v>
       </c>
       <c r="F7" t="n">
-        <v>18.2675782680278</v>
+        <v>0.28790591185566</v>
       </c>
       <c r="G7" t="n">
-        <v>22.6138613861386</v>
+        <v>11</v>
       </c>
       <c r="H7" t="n">
-        <v>11.3406130764829</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.756457012436216</v>
+        <v>0.399894881082411</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>64</v>
+        <v>0.3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>27.40625</v>
+        <v>298</v>
       </c>
       <c r="E8" t="n">
-        <v>2.11274231602254</v>
+        <v>12.6979865771812</v>
       </c>
       <c r="F8" t="n">
-        <v>23.1101689084627</v>
+        <v>0.287700673587536</v>
       </c>
       <c r="G8" t="n">
-        <v>31.3746030457687</v>
+        <v>12</v>
       </c>
       <c r="H8" t="n">
-        <v>17.8625428343206</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.21139138993874</v>
+        <v>0.4867922726551</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>78</v>
+        <v>0.5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>27.0641025641026</v>
+        <v>370</v>
       </c>
       <c r="E9" t="n">
-        <v>1.72594293583023</v>
+        <v>13.8702702702703</v>
       </c>
       <c r="F9" t="n">
-        <v>23.6288565402771</v>
+        <v>0.280875507150911</v>
       </c>
       <c r="G9" t="n">
-        <v>30.474033268323</v>
+        <v>14</v>
       </c>
       <c r="H9" t="n">
-        <v>15.2573931353965</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.13239555372376</v>
+        <v>0.473934979047089</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>82</v>
+        <v>0.8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>23.719512195122</v>
+        <v>250</v>
       </c>
       <c r="E10" t="n">
-        <v>1.65596913952182</v>
+        <v>16.272</v>
       </c>
       <c r="F10" t="n">
-        <v>20.4759195740342</v>
+        <v>0.475375923256966</v>
       </c>
       <c r="G10" t="n">
-        <v>27.0728609137707</v>
+        <v>15</v>
       </c>
       <c r="H10" t="n">
-        <v>14.6315019441555</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.08812058360333</v>
+        <v>0.544632329534682</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="n">
+        <v>412</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8.0995145631068</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.182751306265823</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0611022379580608</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="n">
+        <v>762</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10.6167979002625</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.186327429501234</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.476113888092371</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="n">
+        <v>377</v>
+      </c>
+      <c r="E13" t="n">
+        <v>14.8488063660477</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.292241694552718</v>
+      </c>
+      <c r="G13" t="n">
+        <v>14</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.447991848917697</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="n">
+        <v>250</v>
+      </c>
+      <c r="E14" t="n">
+        <v>16.936</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.41872055168621</v>
+      </c>
+      <c r="G14" t="n">
+        <v>16</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.438645825422014</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="n">
         <v>0.8</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="n">
+        <v>321</v>
+      </c>
+      <c r="E15" t="n">
+        <v>19.1713395638629</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.449126226176202</v>
+      </c>
+      <c r="G15" t="n">
+        <v>18</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.724030538182072</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="n">
+        <v>101</v>
+      </c>
+      <c r="E16" t="n">
+        <v>20.5544554455446</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.11476960150764</v>
+      </c>
+      <c r="G16" t="n">
+        <v>21</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.34602629498342</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="n">
+        <v>64</v>
+      </c>
+      <c r="E17" t="n">
+        <v>27.40625</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.24031699427435</v>
+      </c>
+      <c r="G17" t="n">
+        <v>25</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.08725803297395</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="n">
+        <v>78</v>
+      </c>
+      <c r="E18" t="n">
+        <v>27.0641025641026</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.70037246091027</v>
+      </c>
+      <c r="G18" t="n">
+        <v>26</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.4235949643851</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="n">
+        <v>82</v>
+      </c>
+      <c r="E19" t="n">
+        <v>23.719512195122</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.60199758409185</v>
+      </c>
+      <c r="G19" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.03003079410757</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="n">
         <v>92</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E20" t="n">
         <v>26.5978260869565</v>
       </c>
-      <c r="E11" t="n">
-        <v>1.48369509615514</v>
-      </c>
-      <c r="F11" t="n">
-        <v>23.7611457072914</v>
-      </c>
-      <c r="G11" t="n">
-        <v>29.6396474953822</v>
-      </c>
-      <c r="H11" t="n">
-        <v>14.1910510283102</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.35609473786912</v>
+      <c r="F20" t="n">
+        <v>1.47293442595309</v>
+      </c>
+      <c r="G20" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.76977855002148</v>
       </c>
     </row>
   </sheetData>

--- a/data/2018_Silverman_et_al-heterocyst_data_summary.xlsx
+++ b/data/2018_Silverman_et_al-heterocyst_data_summary.xlsx
@@ -425,13 +425,13 @@
         <v>9.33437013996889</v>
       </c>
       <c r="F2" t="n">
-        <v>0.172253206300272</v>
+        <v>0.172905782177114</v>
       </c>
       <c r="G2" t="n">
         <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>0.476721368582596</v>
+        <v>0.479568541489103</v>
       </c>
     </row>
     <row r="3">
@@ -451,13 +451,13 @@
         <v>9.41575492341357</v>
       </c>
       <c r="F3" t="n">
-        <v>0.199665905482454</v>
+        <v>0.200262315313081</v>
       </c>
       <c r="G3" t="n">
         <v>9</v>
       </c>
       <c r="H3" t="n">
-        <v>0.469101328132906</v>
+        <v>0.457945099017026</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>11.5638051044084</v>
       </c>
       <c r="F4" t="n">
-        <v>0.248757258059664</v>
+        <v>0.25022116058967</v>
       </c>
       <c r="G4" t="n">
         <v>12</v>
       </c>
       <c r="H4" t="n">
-        <v>0.534978693222639</v>
+        <v>0.540270202668898</v>
       </c>
     </row>
     <row r="5">
@@ -503,13 +503,13 @@
         <v>12.8737060041408</v>
       </c>
       <c r="F5" t="n">
-        <v>0.267529967255851</v>
+        <v>0.268341012420777</v>
       </c>
       <c r="G5" t="n">
         <v>12</v>
       </c>
       <c r="H5" t="n">
-        <v>0.498766245617892</v>
+        <v>0.498401850322011</v>
       </c>
     </row>
     <row r="6">
@@ -529,13 +529,13 @@
         <v>7.69918699186992</v>
       </c>
       <c r="F6" t="n">
-        <v>0.309351349624615</v>
+        <v>0.308198658675583</v>
       </c>
       <c r="G6" t="n">
         <v>7</v>
       </c>
       <c r="H6" t="n">
-        <v>0.49858257549235</v>
+        <v>0.490220681240925</v>
       </c>
     </row>
     <row r="7">
@@ -555,13 +555,13 @@
         <v>11.0650887573964</v>
       </c>
       <c r="F7" t="n">
-        <v>0.28790591185566</v>
+        <v>0.290216547300712</v>
       </c>
       <c r="G7" t="n">
         <v>11</v>
       </c>
       <c r="H7" t="n">
-        <v>0.399894881082411</v>
+        <v>0.399285836436981</v>
       </c>
     </row>
     <row r="8">
@@ -581,13 +581,13 @@
         <v>12.6979865771812</v>
       </c>
       <c r="F8" t="n">
-        <v>0.287700673587536</v>
+        <v>0.289015053142963</v>
       </c>
       <c r="G8" t="n">
         <v>12</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4867922726551</v>
+        <v>0.49241595574623</v>
       </c>
     </row>
     <row r="9">
@@ -607,13 +607,13 @@
         <v>13.8702702702703</v>
       </c>
       <c r="F9" t="n">
-        <v>0.280875507150911</v>
+        <v>0.278280443974346</v>
       </c>
       <c r="G9" t="n">
         <v>14</v>
       </c>
       <c r="H9" t="n">
-        <v>0.473934979047089</v>
+        <v>0.470235176397004</v>
       </c>
     </row>
     <row r="10">
@@ -633,13 +633,13 @@
         <v>16.272</v>
       </c>
       <c r="F10" t="n">
-        <v>0.475375923256966</v>
+        <v>0.473212165263482</v>
       </c>
       <c r="G10" t="n">
         <v>15</v>
       </c>
       <c r="H10" t="n">
-        <v>0.544632329534682</v>
+        <v>0.551546193172615</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +659,13 @@
         <v>8.0995145631068</v>
       </c>
       <c r="F11" t="n">
-        <v>0.182751306265823</v>
+        <v>0.182520216912646</v>
       </c>
       <c r="G11" t="n">
         <v>8</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0611022379580608</v>
+        <v>0.0499348925451281</v>
       </c>
     </row>
     <row r="12">
@@ -685,13 +685,13 @@
         <v>10.6167979002625</v>
       </c>
       <c r="F12" t="n">
-        <v>0.186327429501234</v>
+        <v>0.186189592176234</v>
       </c>
       <c r="G12" t="n">
         <v>10</v>
       </c>
       <c r="H12" t="n">
-        <v>0.476113888092371</v>
+        <v>0.475337454547499</v>
       </c>
     </row>
     <row r="13">
@@ -711,13 +711,13 @@
         <v>14.8488063660477</v>
       </c>
       <c r="F13" t="n">
-        <v>0.292241694552718</v>
+        <v>0.293061786999847</v>
       </c>
       <c r="G13" t="n">
         <v>14</v>
       </c>
       <c r="H13" t="n">
-        <v>0.447991848917697</v>
+        <v>0.45567932106213</v>
       </c>
     </row>
     <row r="14">
@@ -737,13 +737,13 @@
         <v>16.936</v>
       </c>
       <c r="F14" t="n">
-        <v>0.41872055168621</v>
+        <v>0.417910060029995</v>
       </c>
       <c r="G14" t="n">
         <v>16</v>
       </c>
       <c r="H14" t="n">
-        <v>0.438645825422014</v>
+        <v>0.443094044568794</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         <v>19.1713395638629</v>
       </c>
       <c r="F15" t="n">
-        <v>0.449126226176202</v>
+        <v>0.44673037387372</v>
       </c>
       <c r="G15" t="n">
         <v>18</v>
       </c>
       <c r="H15" t="n">
-        <v>0.724030538182072</v>
+        <v>0.721054033286632</v>
       </c>
     </row>
     <row r="16">
@@ -789,13 +789,13 @@
         <v>20.5544554455446</v>
       </c>
       <c r="F16" t="n">
-        <v>1.11476960150764</v>
+        <v>1.107847845845</v>
       </c>
       <c r="G16" t="n">
         <v>21</v>
       </c>
       <c r="H16" t="n">
-        <v>1.34602629498342</v>
+        <v>1.35901652893772</v>
       </c>
     </row>
     <row r="17">
@@ -815,13 +815,13 @@
         <v>27.40625</v>
       </c>
       <c r="F17" t="n">
-        <v>2.24031699427435</v>
+        <v>2.24732400026869</v>
       </c>
       <c r="G17" t="n">
         <v>25</v>
       </c>
       <c r="H17" t="n">
-        <v>3.08725803297395</v>
+        <v>3.11507539149451</v>
       </c>
     </row>
     <row r="18">
@@ -841,13 +841,13 @@
         <v>27.0641025641026</v>
       </c>
       <c r="F18" t="n">
-        <v>1.70037246091027</v>
+        <v>1.7015621600056</v>
       </c>
       <c r="G18" t="n">
         <v>26</v>
       </c>
       <c r="H18" t="n">
-        <v>1.4235949643851</v>
+        <v>1.42348210431368</v>
       </c>
     </row>
     <row r="19">
@@ -867,13 +867,13 @@
         <v>23.719512195122</v>
       </c>
       <c r="F19" t="n">
-        <v>1.60199758409185</v>
+        <v>1.61298663182518</v>
       </c>
       <c r="G19" t="n">
         <v>23.5</v>
       </c>
       <c r="H19" t="n">
-        <v>2.03003079410757</v>
+        <v>2.01718716138192</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>26.5978260869565</v>
       </c>
       <c r="F20" t="n">
-        <v>1.47293442595309</v>
+        <v>1.49476448346593</v>
       </c>
       <c r="G20" t="n">
         <v>26.5</v>
       </c>
       <c r="H20" t="n">
-        <v>1.76977855002148</v>
+        <v>1.75850222635062</v>
       </c>
     </row>
   </sheetData>

--- a/data/2018_Silverman_et_al-heterocyst_data_summary.xlsx
+++ b/data/2018_Silverman_et_al-heterocyst_data_summary.xlsx
@@ -425,13 +425,13 @@
         <v>9.33437013996889</v>
       </c>
       <c r="F2" t="n">
-        <v>0.172905782177114</v>
+        <v>0.172253206300272</v>
       </c>
       <c r="G2" t="n">
         <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>0.479568541489103</v>
+        <v>0.476721368582596</v>
       </c>
     </row>
     <row r="3">
@@ -451,13 +451,13 @@
         <v>9.41575492341357</v>
       </c>
       <c r="F3" t="n">
-        <v>0.200262315313081</v>
+        <v>0.199665905482454</v>
       </c>
       <c r="G3" t="n">
         <v>9</v>
       </c>
       <c r="H3" t="n">
-        <v>0.457945099017026</v>
+        <v>0.469101328132906</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>11.5638051044084</v>
       </c>
       <c r="F4" t="n">
-        <v>0.25022116058967</v>
+        <v>0.248757258059664</v>
       </c>
       <c r="G4" t="n">
         <v>12</v>
       </c>
       <c r="H4" t="n">
-        <v>0.540270202668898</v>
+        <v>0.534978693222639</v>
       </c>
     </row>
     <row r="5">
@@ -503,13 +503,13 @@
         <v>12.8737060041408</v>
       </c>
       <c r="F5" t="n">
-        <v>0.268341012420777</v>
+        <v>0.267529967255851</v>
       </c>
       <c r="G5" t="n">
         <v>12</v>
       </c>
       <c r="H5" t="n">
-        <v>0.498401850322011</v>
+        <v>0.498766245617892</v>
       </c>
     </row>
     <row r="6">
@@ -529,13 +529,13 @@
         <v>7.69918699186992</v>
       </c>
       <c r="F6" t="n">
-        <v>0.308198658675583</v>
+        <v>0.309351349624615</v>
       </c>
       <c r="G6" t="n">
         <v>7</v>
       </c>
       <c r="H6" t="n">
-        <v>0.490220681240925</v>
+        <v>0.49858257549235</v>
       </c>
     </row>
     <row r="7">
@@ -555,13 +555,13 @@
         <v>11.0650887573964</v>
       </c>
       <c r="F7" t="n">
-        <v>0.290216547300712</v>
+        <v>0.28790591185566</v>
       </c>
       <c r="G7" t="n">
         <v>11</v>
       </c>
       <c r="H7" t="n">
-        <v>0.399285836436981</v>
+        <v>0.399894881082411</v>
       </c>
     </row>
     <row r="8">
@@ -581,13 +581,13 @@
         <v>12.6979865771812</v>
       </c>
       <c r="F8" t="n">
-        <v>0.289015053142963</v>
+        <v>0.287700673587536</v>
       </c>
       <c r="G8" t="n">
         <v>12</v>
       </c>
       <c r="H8" t="n">
-        <v>0.49241595574623</v>
+        <v>0.4867922726551</v>
       </c>
     </row>
     <row r="9">
@@ -607,13 +607,13 @@
         <v>13.8702702702703</v>
       </c>
       <c r="F9" t="n">
-        <v>0.278280443974346</v>
+        <v>0.280875507150911</v>
       </c>
       <c r="G9" t="n">
         <v>14</v>
       </c>
       <c r="H9" t="n">
-        <v>0.470235176397004</v>
+        <v>0.473934979047089</v>
       </c>
     </row>
     <row r="10">
@@ -633,13 +633,13 @@
         <v>16.272</v>
       </c>
       <c r="F10" t="n">
-        <v>0.473212165263482</v>
+        <v>0.475375923256966</v>
       </c>
       <c r="G10" t="n">
         <v>15</v>
       </c>
       <c r="H10" t="n">
-        <v>0.551546193172615</v>
+        <v>0.544632329534682</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +659,13 @@
         <v>8.0995145631068</v>
       </c>
       <c r="F11" t="n">
-        <v>0.182520216912646</v>
+        <v>0.182751306265823</v>
       </c>
       <c r="G11" t="n">
         <v>8</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0499348925451281</v>
+        <v>0.0611022379580608</v>
       </c>
     </row>
     <row r="12">
@@ -685,13 +685,13 @@
         <v>10.6167979002625</v>
       </c>
       <c r="F12" t="n">
-        <v>0.186189592176234</v>
+        <v>0.186327429501234</v>
       </c>
       <c r="G12" t="n">
         <v>10</v>
       </c>
       <c r="H12" t="n">
-        <v>0.475337454547499</v>
+        <v>0.476113888092371</v>
       </c>
     </row>
     <row r="13">
@@ -711,13 +711,13 @@
         <v>14.8488063660477</v>
       </c>
       <c r="F13" t="n">
-        <v>0.293061786999847</v>
+        <v>0.292241694552718</v>
       </c>
       <c r="G13" t="n">
         <v>14</v>
       </c>
       <c r="H13" t="n">
-        <v>0.45567932106213</v>
+        <v>0.447991848917697</v>
       </c>
     </row>
     <row r="14">
@@ -737,13 +737,13 @@
         <v>16.936</v>
       </c>
       <c r="F14" t="n">
-        <v>0.417910060029995</v>
+        <v>0.41872055168621</v>
       </c>
       <c r="G14" t="n">
         <v>16</v>
       </c>
       <c r="H14" t="n">
-        <v>0.443094044568794</v>
+        <v>0.438645825422014</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         <v>19.1713395638629</v>
       </c>
       <c r="F15" t="n">
-        <v>0.44673037387372</v>
+        <v>0.449126226176202</v>
       </c>
       <c r="G15" t="n">
         <v>18</v>
       </c>
       <c r="H15" t="n">
-        <v>0.721054033286632</v>
+        <v>0.724030538182072</v>
       </c>
     </row>
     <row r="16">
@@ -789,13 +789,13 @@
         <v>20.5544554455446</v>
       </c>
       <c r="F16" t="n">
-        <v>1.107847845845</v>
+        <v>1.11476960150764</v>
       </c>
       <c r="G16" t="n">
         <v>21</v>
       </c>
       <c r="H16" t="n">
-        <v>1.35901652893772</v>
+        <v>1.34602629498342</v>
       </c>
     </row>
     <row r="17">
@@ -815,13 +815,13 @@
         <v>27.40625</v>
       </c>
       <c r="F17" t="n">
-        <v>2.24732400026869</v>
+        <v>2.24031699427435</v>
       </c>
       <c r="G17" t="n">
         <v>25</v>
       </c>
       <c r="H17" t="n">
-        <v>3.11507539149451</v>
+        <v>3.08725803297395</v>
       </c>
     </row>
     <row r="18">
@@ -841,13 +841,13 @@
         <v>27.0641025641026</v>
       </c>
       <c r="F18" t="n">
-        <v>1.7015621600056</v>
+        <v>1.70037246091027</v>
       </c>
       <c r="G18" t="n">
         <v>26</v>
       </c>
       <c r="H18" t="n">
-        <v>1.42348210431368</v>
+        <v>1.4235949643851</v>
       </c>
     </row>
     <row r="19">
@@ -867,13 +867,13 @@
         <v>23.719512195122</v>
       </c>
       <c r="F19" t="n">
-        <v>1.61298663182518</v>
+        <v>1.60199758409185</v>
       </c>
       <c r="G19" t="n">
         <v>23.5</v>
       </c>
       <c r="H19" t="n">
-        <v>2.01718716138192</v>
+        <v>2.03003079410757</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>26.5978260869565</v>
       </c>
       <c r="F20" t="n">
-        <v>1.49476448346593</v>
+        <v>1.47293442595309</v>
       </c>
       <c r="G20" t="n">
         <v>26.5</v>
       </c>
       <c r="H20" t="n">
-        <v>1.75850222635062</v>
+        <v>1.76977855002148</v>
       </c>
     </row>
   </sheetData>
